--- a/Data/Processing/2024-02-02/PGHH.xlsx
+++ b/Data/Processing/2024-02-02/PGHH.xlsx
@@ -763,13 +763,13 @@
         <v>44965</v>
       </c>
       <c r="B5">
-        <v>13468.94</v>
+        <v>13468.95</v>
       </c>
       <c r="C5">
-        <v>13788.76</v>
+        <v>13788.77</v>
       </c>
       <c r="D5">
-        <v>13443.19</v>
+        <v>13443.2</v>
       </c>
       <c r="E5">
         <v>13488.27</v>
@@ -793,7 +793,7 @@
         <v>-0.19</v>
       </c>
       <c r="L5">
-        <v>59.3</v>
+        <v>59.31</v>
       </c>
       <c r="M5">
         <v>-2.18</v>
@@ -963,10 +963,10 @@
         <v>44971</v>
       </c>
       <c r="B9">
-        <v>13588.1</v>
+        <v>13588.11</v>
       </c>
       <c r="C9">
-        <v>13588.1</v>
+        <v>13588.11</v>
       </c>
       <c r="D9">
         <v>13369.26</v>
@@ -993,7 +993,7 @@
         <v>-1.64</v>
       </c>
       <c r="L9">
-        <v>66.77</v>
+        <v>66.78</v>
       </c>
       <c r="M9">
         <v>0.3899999999999999</v>
@@ -1713,7 +1713,7 @@
         <v>44993</v>
       </c>
       <c r="B24">
-        <v>13695.31</v>
+        <v>13695.3</v>
       </c>
       <c r="C24">
         <v>13854.89</v>
@@ -1743,7 +1743,7 @@
         <v>-0.33</v>
       </c>
       <c r="L24">
-        <v>-119.85</v>
+        <v>-119.86</v>
       </c>
       <c r="M24">
         <v>-0.8999999999999999</v>
@@ -1916,7 +1916,7 @@
         <v>13517.38</v>
       </c>
       <c r="C28">
-        <v>13527.27</v>
+        <v>13527.26</v>
       </c>
       <c r="D28">
         <v>13330.56</v>
@@ -3869,7 +3869,7 @@
         <v>13897.94</v>
       </c>
       <c r="D67">
-        <v>13642.17</v>
+        <v>13642.18</v>
       </c>
       <c r="E67">
         <v>13815.11</v>
@@ -3916,7 +3916,7 @@
         <v>13853.46</v>
       </c>
       <c r="C68">
-        <v>13935.46</v>
+        <v>13935.45</v>
       </c>
       <c r="D68">
         <v>13657.45</v>
@@ -5113,10 +5113,10 @@
         <v>45096</v>
       </c>
       <c r="B92">
-        <v>13838.48</v>
+        <v>13838.49</v>
       </c>
       <c r="C92">
-        <v>13838.48</v>
+        <v>13838.49</v>
       </c>
       <c r="D92">
         <v>13715.12</v>
@@ -5143,7 +5143,7 @@
         <v>-0.9</v>
       </c>
       <c r="L92">
-        <v>52.23</v>
+        <v>52.24</v>
       </c>
       <c r="M92">
         <v>0.42</v>
@@ -6819,7 +6819,7 @@
         <v>15560.01</v>
       </c>
       <c r="D126">
-        <v>15321.34</v>
+        <v>15321.35</v>
       </c>
       <c r="E126">
         <v>15422.42</v>
@@ -7069,7 +7069,7 @@
         <v>15329.7</v>
       </c>
       <c r="D131">
-        <v>14980.87</v>
+        <v>14980.86</v>
       </c>
       <c r="E131">
         <v>15216.96</v>
@@ -7522,7 +7522,7 @@
         <v>15259.12</v>
       </c>
       <c r="E140">
-        <v>16232.91</v>
+        <v>16232.92</v>
       </c>
       <c r="F140">
         <v>15363.8</v>
@@ -7552,7 +7552,7 @@
         <v>7.5</v>
       </c>
       <c r="O140">
-        <v>15162.80568181818</v>
+        <v>15162.80590909091</v>
       </c>
       <c r="P140">
         <v>0</v>
@@ -7575,7 +7575,7 @@
         <v>15707.54</v>
       </c>
       <c r="F141">
-        <v>16232.91</v>
+        <v>16232.92</v>
       </c>
       <c r="G141">
         <v>18999</v>
@@ -7593,7 +7593,7 @@
         <v>-5.08</v>
       </c>
       <c r="L141">
-        <v>76.91</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="M141">
         <v>1.25</v>
@@ -7602,7 +7602,7 @@
         <v>5.44</v>
       </c>
       <c r="O141">
-        <v>15194.52431818182</v>
+        <v>15194.52454545454</v>
       </c>
       <c r="P141">
         <v>0</v>
@@ -7652,7 +7652,7 @@
         <v>2.49</v>
       </c>
       <c r="O142">
-        <v>15226.25113636363</v>
+        <v>15226.25136363636</v>
       </c>
       <c r="P142">
         <v>0</v>
@@ -7702,7 +7702,7 @@
         <v>2.82</v>
       </c>
       <c r="O143">
-        <v>15261.53636363637</v>
+        <v>15261.53659090909</v>
       </c>
       <c r="P143">
         <v>0</v>
@@ -7752,7 +7752,7 @@
         <v>2.49</v>
       </c>
       <c r="O144">
-        <v>15301.85727272727</v>
+        <v>15301.8575</v>
       </c>
       <c r="P144">
         <v>0</v>
@@ -7802,7 +7802,7 @@
         <v>1.86</v>
       </c>
       <c r="O145">
-        <v>15346.41840909091</v>
+        <v>15346.41863636363</v>
       </c>
       <c r="P145">
         <v>0</v>
@@ -7852,7 +7852,7 @@
         <v>2.06</v>
       </c>
       <c r="O146">
-        <v>15380.96113636364</v>
+        <v>15380.96136363636</v>
       </c>
       <c r="P146">
         <v>0</v>
@@ -7902,7 +7902,7 @@
         <v>1.61</v>
       </c>
       <c r="O147">
-        <v>15419.99909090909</v>
+        <v>15419.99931818182</v>
       </c>
       <c r="P147">
         <v>0</v>
@@ -7913,7 +7913,7 @@
         <v>45176</v>
       </c>
       <c r="B148">
-        <v>16209.05</v>
+        <v>16209.04</v>
       </c>
       <c r="C148">
         <v>16799.61</v>
@@ -7943,7 +7943,7 @@
         <v>-1.53</v>
       </c>
       <c r="L148">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
       <c r="M148">
         <v>-1.08</v>
@@ -7952,7 +7952,7 @@
         <v>5.15</v>
       </c>
       <c r="O148">
-        <v>15464.96227272727</v>
+        <v>15464.9625</v>
       </c>
       <c r="P148">
         <v>0</v>
@@ -7963,7 +7963,7 @@
         <v>45177</v>
       </c>
       <c r="B149">
-        <v>16624.79</v>
+        <v>16624.8</v>
       </c>
       <c r="C149">
         <v>17125.31</v>
@@ -7993,7 +7993,7 @@
         <v>-0.58</v>
       </c>
       <c r="L149">
-        <v>10.52</v>
+        <v>10.53</v>
       </c>
       <c r="M149">
         <v>-1.06</v>
@@ -8002,7 +8002,7 @@
         <v>3.59</v>
       </c>
       <c r="O149">
-        <v>15514.76227272727</v>
+        <v>15514.7625</v>
       </c>
       <c r="P149">
         <v>0</v>
@@ -8052,7 +8052,7 @@
         <v>1.98</v>
       </c>
       <c r="O150">
-        <v>15577.89659090909</v>
+        <v>15577.89681818182</v>
       </c>
       <c r="P150">
         <v>0</v>
@@ -8102,7 +8102,7 @@
         <v>2.82</v>
       </c>
       <c r="O151">
-        <v>15631.51795454546</v>
+        <v>15631.51818181818</v>
       </c>
       <c r="P151">
         <v>0</v>
@@ -8152,7 +8152,7 @@
         <v>3.52</v>
       </c>
       <c r="O152">
-        <v>15685.88272727273</v>
+        <v>15685.88295454545</v>
       </c>
       <c r="P152">
         <v>0</v>
@@ -8166,13 +8166,13 @@
         <v>17138.16</v>
       </c>
       <c r="C153">
-        <v>17483.39</v>
+        <v>17483.38</v>
       </c>
       <c r="D153">
-        <v>16823.83</v>
+        <v>16823.82</v>
       </c>
       <c r="E153">
-        <v>17032.25</v>
+        <v>17032.24</v>
       </c>
       <c r="F153">
         <v>17122.34</v>
@@ -8225,7 +8225,7 @@
         <v>17250.99</v>
       </c>
       <c r="F154">
-        <v>17032.25</v>
+        <v>17032.24</v>
       </c>
       <c r="G154">
         <v>22245</v>
@@ -8243,7 +8243,7 @@
         <v>-0.32</v>
       </c>
       <c r="L154">
-        <v>84.16</v>
+        <v>84.17</v>
       </c>
       <c r="M154">
         <v>-0.29</v>
@@ -8319,10 +8319,10 @@
         <v>17409.74</v>
       </c>
       <c r="D156">
-        <v>17168.6</v>
+        <v>17168.61</v>
       </c>
       <c r="E156">
-        <v>17295.47</v>
+        <v>17295.48</v>
       </c>
       <c r="F156">
         <v>17279.17</v>
@@ -8352,7 +8352,7 @@
         <v>1.4</v>
       </c>
       <c r="O156">
-        <v>15856.19795454545</v>
+        <v>15856.19818181818</v>
       </c>
       <c r="P156">
         <v>0</v>
@@ -8375,7 +8375,7 @@
         <v>16965.52</v>
       </c>
       <c r="F157">
-        <v>17295.47</v>
+        <v>17295.48</v>
       </c>
       <c r="G157">
         <v>1804</v>
@@ -8393,7 +8393,7 @@
         <v>-2.04</v>
       </c>
       <c r="L157">
-        <v>-52.78</v>
+        <v>-52.79</v>
       </c>
       <c r="M157">
         <v>0.4100000000000001</v>
@@ -8402,7 +8402,7 @@
         <v>2.22</v>
       </c>
       <c r="O157">
-        <v>15883.39886363636</v>
+        <v>15883.39909090909</v>
       </c>
       <c r="P157">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>4.21</v>
       </c>
       <c r="O158">
-        <v>15921.39318181818</v>
+        <v>15921.39340909091</v>
       </c>
       <c r="P158">
         <v>0</v>
@@ -8502,7 +8502,7 @@
         <v>1.92</v>
       </c>
       <c r="O159">
-        <v>15962.66977272727</v>
+        <v>15962.67</v>
       </c>
       <c r="P159">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>1.61</v>
       </c>
       <c r="O160">
-        <v>16010.30636363636</v>
+        <v>16010.30659090909</v>
       </c>
       <c r="P160">
         <v>0</v>
@@ -8602,7 +8602,7 @@
         <v>4.85</v>
       </c>
       <c r="O161">
-        <v>16081.34954545455</v>
+        <v>16081.34977272727</v>
       </c>
       <c r="P161">
         <v>0</v>
@@ -8652,7 +8652,7 @@
         <v>6.48</v>
       </c>
       <c r="O162">
-        <v>16129.92295454545</v>
+        <v>16129.92318181818</v>
       </c>
       <c r="P162">
         <v>0</v>
@@ -8663,13 +8663,13 @@
         <v>45198</v>
       </c>
       <c r="B163">
-        <v>17594.83</v>
+        <v>17594.84</v>
       </c>
       <c r="C163">
         <v>17881.39</v>
       </c>
       <c r="D163">
-        <v>17378.6</v>
+        <v>17378.61</v>
       </c>
       <c r="E163">
         <v>17745.53</v>
@@ -8693,7 +8693,7 @@
         <v>-1.24</v>
       </c>
       <c r="L163">
-        <v>81.34999999999999</v>
+        <v>81.36</v>
       </c>
       <c r="M163">
         <v>-0.7500000000000001</v>
@@ -8702,7 +8702,7 @@
         <v>2.86</v>
       </c>
       <c r="O163">
-        <v>16178.71545454545</v>
+        <v>16178.71568181818</v>
       </c>
       <c r="P163">
         <v>0</v>
@@ -8752,7 +8752,7 @@
         <v>2.71</v>
       </c>
       <c r="O164">
-        <v>16219.51477272727</v>
+        <v>16219.515</v>
       </c>
       <c r="P164">
         <v>0</v>
@@ -8802,7 +8802,7 @@
         <v>2.1</v>
       </c>
       <c r="O165">
-        <v>16264.65863636364</v>
+        <v>16264.65886363636</v>
       </c>
       <c r="P165">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>1.57</v>
       </c>
       <c r="O166">
-        <v>16315.19</v>
+        <v>16315.19022727273</v>
       </c>
       <c r="P166">
         <v>0</v>
@@ -8902,7 +8902,7 @@
         <v>1.85</v>
       </c>
       <c r="O167">
-        <v>16364.49136363636</v>
+        <v>16364.49159090909</v>
       </c>
       <c r="P167">
         <v>0</v>
@@ -8952,7 +8952,7 @@
         <v>2.26</v>
       </c>
       <c r="O168">
-        <v>16407.98204545454</v>
+        <v>16407.98227272727</v>
       </c>
       <c r="P168">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>1.55</v>
       </c>
       <c r="O169">
-        <v>16457.74840909091</v>
+        <v>16457.74863636363</v>
       </c>
       <c r="P169">
         <v>0</v>
@@ -9016,7 +9016,7 @@
         <v>17565.08</v>
       </c>
       <c r="C170">
-        <v>17652.32</v>
+        <v>17652.31</v>
       </c>
       <c r="D170">
         <v>17446.61</v>
@@ -9052,7 +9052,7 @@
         <v>1.17</v>
       </c>
       <c r="O170">
-        <v>16506.25204545454</v>
+        <v>16506.25227272727</v>
       </c>
       <c r="P170">
         <v>0</v>
@@ -9102,7 +9102,7 @@
         <v>1.64</v>
       </c>
       <c r="O171">
-        <v>16551.29159090909</v>
+        <v>16551.29181818182</v>
       </c>
       <c r="P171">
         <v>0</v>
@@ -9113,7 +9113,7 @@
         <v>45212</v>
       </c>
       <c r="B172">
-        <v>17478.24</v>
+        <v>17478.25</v>
       </c>
       <c r="C172">
         <v>17538.69</v>
@@ -9143,7 +9143,7 @@
         <v>-0.43</v>
       </c>
       <c r="L172">
-        <v>-1.83</v>
+        <v>-1.82</v>
       </c>
       <c r="M172">
         <v>0.19</v>
@@ -9152,7 +9152,7 @@
         <v>0.78</v>
       </c>
       <c r="O172">
-        <v>16599.64818181818</v>
+        <v>16599.64840909091</v>
       </c>
       <c r="P172">
         <v>0</v>
@@ -9202,7 +9202,7 @@
         <v>1.41</v>
       </c>
       <c r="O173">
-        <v>16644.10795454546</v>
+        <v>16644.10818181818</v>
       </c>
       <c r="P173">
         <v>0</v>
@@ -9216,7 +9216,7 @@
         <v>17395.16</v>
       </c>
       <c r="C174">
-        <v>17400.95</v>
+        <v>17400.94</v>
       </c>
       <c r="D174">
         <v>17006.79</v>
@@ -9252,7 +9252,7 @@
         <v>2.27</v>
       </c>
       <c r="O174">
-        <v>16690.455</v>
+        <v>16690.45522727273</v>
       </c>
       <c r="P174">
         <v>0</v>
@@ -9302,7 +9302,7 @@
         <v>1.37</v>
       </c>
       <c r="O175">
-        <v>16732.69318181818</v>
+        <v>16732.69340909091</v>
       </c>
       <c r="P175">
         <v>0</v>
@@ -9352,7 +9352,7 @@
         <v>1.61</v>
       </c>
       <c r="O176">
-        <v>16766.80681818182</v>
+        <v>16766.80704545455</v>
       </c>
       <c r="P176">
         <v>0</v>
@@ -9366,13 +9366,13 @@
         <v>17120.07</v>
       </c>
       <c r="C177">
-        <v>17387.25</v>
+        <v>17387.26</v>
       </c>
       <c r="D177">
         <v>16826.84</v>
       </c>
       <c r="E177">
-        <v>16943.03</v>
+        <v>16943.04</v>
       </c>
       <c r="F177">
         <v>17163.86</v>
@@ -9402,7 +9402,7 @@
         <v>3.27</v>
       </c>
       <c r="O177">
-        <v>16803.63522727273</v>
+        <v>16803.63568181818</v>
       </c>
       <c r="P177">
         <v>0</v>
@@ -9425,7 +9425,7 @@
         <v>16711.19</v>
       </c>
       <c r="F178">
-        <v>16943.03</v>
+        <v>16943.04</v>
       </c>
       <c r="G178">
         <v>1675</v>
@@ -9443,7 +9443,7 @@
         <v>-1.87</v>
       </c>
       <c r="L178">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="M178">
         <v>0.4800000000000002</v>
@@ -9452,7 +9452,7 @@
         <v>2.33</v>
       </c>
       <c r="O178">
-        <v>16838.63068181818</v>
+        <v>16838.63113636363</v>
       </c>
       <c r="P178">
         <v>1</v>
@@ -9502,7 +9502,7 @@
         <v>4.76</v>
       </c>
       <c r="O179">
-        <v>16878.93227272727</v>
+        <v>16878.93272727273</v>
       </c>
       <c r="P179">
         <v>1</v>
@@ -9516,10 +9516,10 @@
         <v>16983.71</v>
       </c>
       <c r="C180">
-        <v>17085.38</v>
+        <v>17085.37</v>
       </c>
       <c r="D180">
-        <v>16557.93</v>
+        <v>16557.92</v>
       </c>
       <c r="E180">
         <v>16665.32</v>
@@ -9552,7 +9552,7 @@
         <v>3.11</v>
       </c>
       <c r="O180">
-        <v>16910.57227272727</v>
+        <v>16910.57272727273</v>
       </c>
       <c r="P180">
         <v>1</v>
@@ -9566,7 +9566,7 @@
         <v>16688.95</v>
       </c>
       <c r="C181">
-        <v>16879.58</v>
+        <v>16879.57</v>
       </c>
       <c r="D181">
         <v>16626.28</v>
@@ -9602,7 +9602,7 @@
         <v>1.52</v>
       </c>
       <c r="O181">
-        <v>16942.01704545454</v>
+        <v>16942.0175</v>
       </c>
       <c r="P181">
         <v>0</v>
@@ -9619,10 +9619,10 @@
         <v>17001.01</v>
       </c>
       <c r="D182">
-        <v>16433.58</v>
+        <v>16433.57</v>
       </c>
       <c r="E182">
-        <v>16489.53</v>
+        <v>16489.52</v>
       </c>
       <c r="F182">
         <v>16804.55</v>
@@ -9652,7 +9652,7 @@
         <v>3.38</v>
       </c>
       <c r="O182">
-        <v>16965.67772727273</v>
+        <v>16965.67795454546</v>
       </c>
       <c r="P182">
         <v>1</v>
@@ -9675,7 +9675,7 @@
         <v>17338.52</v>
       </c>
       <c r="F183">
-        <v>16489.53</v>
+        <v>16489.52</v>
       </c>
       <c r="G183">
         <v>44193</v>
@@ -9693,7 +9693,7 @@
         <v>-3.25</v>
       </c>
       <c r="L183">
-        <v>601.1799999999999</v>
+        <v>601.1900000000001</v>
       </c>
       <c r="M183">
         <v>-0.74</v>
@@ -9702,7 +9702,7 @@
         <v>5.37</v>
       </c>
       <c r="O183">
-        <v>17010.55772727272</v>
+        <v>17010.55795454545</v>
       </c>
       <c r="P183">
         <v>1</v>
@@ -9719,7 +9719,7 @@
         <v>17693.58</v>
       </c>
       <c r="D184">
-        <v>17186.65</v>
+        <v>17186.64</v>
       </c>
       <c r="E184">
         <v>17610.75</v>
@@ -9919,7 +9919,7 @@
         <v>17795.59</v>
       </c>
       <c r="D188">
-        <v>17199.44</v>
+        <v>17199.45</v>
       </c>
       <c r="E188">
         <v>17306.6</v>
@@ -10069,7 +10069,7 @@
         <v>17758.58</v>
       </c>
       <c r="D191">
-        <v>17051.23</v>
+        <v>17051.22</v>
       </c>
       <c r="E191">
         <v>17605.41</v>
@@ -10402,7 +10402,7 @@
         <v>4.19</v>
       </c>
       <c r="O197">
-        <v>17422.46727272727</v>
+        <v>17422.4675</v>
       </c>
       <c r="P197">
         <v>0</v>
@@ -10452,7 +10452,7 @@
         <v>3.25</v>
       </c>
       <c r="O198">
-        <v>17437.39590909091</v>
+        <v>17437.39613636363</v>
       </c>
       <c r="P198">
         <v>0</v>
@@ -10502,7 +10502,7 @@
         <v>2.41</v>
       </c>
       <c r="O199">
-        <v>17451.5125</v>
+        <v>17451.51272727273</v>
       </c>
       <c r="P199">
         <v>0</v>
@@ -11602,7 +11602,7 @@
         <v>2.19</v>
       </c>
       <c r="O221">
-        <v>17384.75681818182</v>
+        <v>17384.75659090909</v>
       </c>
       <c r="P221">
         <v>1</v>
@@ -11652,7 +11652,7 @@
         <v>3.15</v>
       </c>
       <c r="O222">
-        <v>17394.23659090909</v>
+        <v>17394.23636363636</v>
       </c>
       <c r="P222">
         <v>1</v>
@@ -11702,7 +11702,7 @@
         <v>2.43</v>
       </c>
       <c r="O223">
-        <v>17402.92613636364</v>
+        <v>17402.92590909091</v>
       </c>
       <c r="P223">
         <v>1</v>
@@ -11752,7 +11752,7 @@
         <v>1.72</v>
       </c>
       <c r="O224">
-        <v>17418.64386363636</v>
+        <v>17418.64363636363</v>
       </c>
       <c r="P224">
         <v>1</v>
@@ -11802,7 +11802,7 @@
         <v>1.5</v>
       </c>
       <c r="O225">
-        <v>17431.46772727273</v>
+        <v>17431.4675</v>
       </c>
       <c r="P225">
         <v>0</v>
